--- a/Documents/датчики.xlsx
+++ b/Documents/датчики.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="13470" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -121,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -459,21 +457,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6">
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -481,7 +479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -495,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -509,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -523,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -537,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -551,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -565,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -579,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -593,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -607,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -621,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -635,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -649,7 +647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -663,7 +661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -677,7 +675,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -691,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -705,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -716,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -730,7 +728,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" ht="43.5">
       <c r="C23" t="s">
         <v>32</v>
       </c>

--- a/Documents/датчики.xlsx
+++ b/Documents/датчики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="13470" windowHeight="7280"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13470" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>button</t>
   </si>
@@ -116,18 +116,123 @@
   </si>
   <si>
     <t>аналоговые датчики (например: sens_mq2 - цифровой, sens_mq2_a - аналоговый)</t>
+  </si>
+  <si>
+    <t>отображаемая информация</t>
+  </si>
+  <si>
+    <t>ик пульт (телек)</t>
+  </si>
+  <si>
+    <t>на клиентском устройстве красивые кнопочки: вкл, выкл, 1.2.3.4.5 и т.д. Сервер принимает команду от гаджета и отсылает команду дуине типа on_off, ch_1, menu_up и т.д. дуина принимает команду и шлет на ик ресивер хексы.</t>
+  </si>
+  <si>
+    <t>шторы и любые привода</t>
+  </si>
+  <si>
+    <t>на гаджете: открыть/закрыть, больше/меньше(шаг 10%). Сервер отсылает значение от 0 до 100. значения не возвращаются</t>
+  </si>
+  <si>
+    <t>ШИМ освещение</t>
+  </si>
+  <si>
+    <t>на гаджете: вкл/выкл, больше/меньше(шаг 10%). Сервер отсылает значение на дуину от 0 до 255. значения возвращаются shim_ligth</t>
+  </si>
+  <si>
+    <t>shim_ligth</t>
+  </si>
+  <si>
+    <t>rele_clim</t>
+  </si>
+  <si>
+    <t>реле управления контурами отопления</t>
+  </si>
+  <si>
+    <t>rele_vent</t>
+  </si>
+  <si>
+    <t>реле управления вент. Контурами</t>
+  </si>
+  <si>
+    <t>вентиляция (рекуператоры)</t>
+  </si>
+  <si>
+    <t>пока известно, что установка принимает 2 вида значений: скорость вентилятора и температура. Оба значения числовые 0-3 и 0-30. возвращатся значений может дохрена, штук 40.</t>
+  </si>
+  <si>
+    <t>значение заданного уровня света шим</t>
+  </si>
+  <si>
+    <t>ventsens_speed</t>
+  </si>
+  <si>
+    <t>sens_door</t>
+  </si>
+  <si>
+    <t>датчик открытия двери</t>
+  </si>
+  <si>
+    <t>ventsens_temp</t>
+  </si>
+  <si>
+    <t>sens_wind</t>
+  </si>
+  <si>
+    <t>датчик открытия окна</t>
+  </si>
+  <si>
+    <t>кондиционер</t>
+  </si>
+  <si>
+    <t>по сути так же как и телевизор. Наверно нужна универсальная форма наполнения параметров и сигналов.</t>
+  </si>
+  <si>
+    <t>_d</t>
+  </si>
+  <si>
+    <t>цифровой датчик</t>
+  </si>
+  <si>
+    <t>A_B_C_D_E_F</t>
+  </si>
+  <si>
+    <t>A - порядковый номер строки</t>
+  </si>
+  <si>
+    <t>B - 2х циферное обозначение зоны</t>
+  </si>
+  <si>
+    <t>C - тип датчик/реле/кнопка</t>
+  </si>
+  <si>
+    <t>D - вид датчика/реле/кнопки</t>
+  </si>
+  <si>
+    <t>E - цифра/аналог</t>
+  </si>
+  <si>
+    <t>F - текущее значение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -151,11 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,20 +564,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F23"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -479,7 +591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -492,8 +604,14 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -507,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -521,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="1:10">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -535,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="1:10">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -549,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="1:10">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -563,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -577,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -590,8 +708,14 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:6">
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -605,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -619,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="1:10">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -630,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -647,7 +771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="1:10">
       <c r="C16" t="s">
         <v>7</v>
       </c>
@@ -661,7 +785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:10">
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -674,8 +798,14 @@
       <c r="F17">
         <v>65535</v>
       </c>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -688,8 +818,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -703,7 +836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:10">
       <c r="C20" t="s">
         <v>16</v>
       </c>
@@ -713,8 +846,11 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="F20">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" t="s">
         <v>17</v>
       </c>
@@ -728,18 +864,145 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="43.5">
+    <row r="22" spans="3:10">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>255</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>1023</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="D44" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
